--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2549405.157258717</v>
+        <v>2636921.784457044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903705</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6375584.849663349</v>
+        <v>6561607.604189714</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>256.23636911207</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>178.4529020577349</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -832,7 +834,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>42.38618841778252</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>385.5871048713333</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>115.5647692639504</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>155.0188263027848</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>27.77250173713422</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2278821501718</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>27.79744670745611</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>38.84036704751845</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>157.749049636689</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>108.2642464846189</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>41.04310989306708</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1528,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.26954145708687</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>203.7730609104538</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>159.8526263285886</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1664,10 +1666,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>52.26690803001904</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2002,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>105.4861643583073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>239.6441761814972</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>262.2425928248792</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>86.54918498256373</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>54.68688746169133</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2324,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2333,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>262.2425928248799</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2481,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>11.22535429200825</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>82.82828817925886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,13 +2535,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H26" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>97.25079352804489</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>204.4954136652452</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2798,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2852,7 +2854,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>347.6353852893851</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2950,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>20.07078448661155</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>96.54953257177749</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3041,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>368.180220150888</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>325.8567232380378</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>70.80681896293774</v>
+        <v>165.9361774349343</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3275,16 +3277,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>358.7938392237629</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.129477376966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3433,13 +3435,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.99389980976308</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3560,7 +3562,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>309.974021089658</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>55.40016629815014</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>63.02663910289075</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>272.2121042238773</v>
+        <v>373.736032213064</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>159.5167033879907</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.7251926927192925</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3980,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>91.8634291666399</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4034,10 +4036,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>251.9641659822632</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.6942298771793</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4144,10 +4146,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.5875284461879</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>654.2465468795142</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>648.1623602331883</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>647.7388343666529</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
         <v>46.45296569636579</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.404399595914</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1064.467726544004</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959275</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.305812471329</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>853.2124400330456</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>693.7177953559556</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>532.8069802242751</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>368.1758543348664</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>200.9254632604098</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
@@ -4522,16 +4524,16 @@
         <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.005518865373</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W4" t="n">
-        <v>1212.005518865373</v>
+        <v>1318.798642324783</v>
       </c>
       <c r="X4" t="n">
-        <v>1212.005518865373</v>
+        <v>1318.798642324783</v>
       </c>
       <c r="Y4" t="n">
-        <v>1212.005518865373</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.389703984565</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>867.2651132978355</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>477.7831891853775</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1971.522191314496</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1714.461699574006</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1364.624144910487</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649055</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.610883649055</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>690.384199457534</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>832.9937995554407</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>676.4091265223246</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>516.9144818452346</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>356.0036667135541</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4750,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1543.110950192741</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1303.562211169443</v>
       </c>
       <c r="U7" t="n">
-        <v>1331.615243227154</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V7" t="n">
-        <v>1057.729498166676</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.729498166676</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X7" t="n">
-        <v>1057.729498166676</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y7" t="n">
-        <v>832.9937995554407</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>815.0058251571504</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>808.9216385108246</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>808.4981126442891</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>798.1983012015899</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1767.09327468481</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1767.09327468481</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>1225.22700482164</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>1225.22700482164</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>1225.22700482164</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>143.0758930760849</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>598.8821493413836</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>1259.970321260672</v>
       </c>
       <c r="M9" t="n">
-        <v>675.1644281008379</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767163</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767163</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>557.3502705630843</v>
+        <v>406.7185531001956</v>
       </c>
       <c r="C10" t="n">
-        <v>557.3502705630843</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="D10" t="n">
-        <v>397.8556258859944</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="E10" t="n">
-        <v>397.8556258859944</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="F10" t="n">
-        <v>397.8556258859944</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="G10" t="n">
-        <v>230.6052348115378</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
-        <v>80.99777961699442</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="V10" t="n">
-        <v>1299.499495805762</v>
+        <v>1069.866390583051</v>
       </c>
       <c r="W10" t="n">
-        <v>1020.429831314636</v>
+        <v>790.7967260919249</v>
       </c>
       <c r="X10" t="n">
-        <v>782.0859691743196</v>
+        <v>631.454251711431</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.3502705630843</v>
+        <v>406.7185531001956</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1799.896855934191</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C11" t="n">
-        <v>1389.772265247461</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D11" t="n">
-        <v>985.3083353405216</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E11" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F11" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1827.878436701744</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2581.059453340362</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3224.690309757467</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4552.827059799201</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U11" t="n">
-        <v>3436.916094107144</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V11" t="n">
-        <v>3395.45840734647</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W11" t="n">
-        <v>3011.698106481638</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X11" t="n">
-        <v>2611.054708650591</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y11" t="n">
-        <v>2210.118035598681</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>107.4329466727332</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>563.2392029380319</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>563.2392029380319</v>
       </c>
       <c r="M12" t="n">
-        <v>918.8651537618904</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="N12" t="n">
-        <v>1792.523245873508</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.2755967663099</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C13" t="n">
-        <v>811.2755967663099</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D13" t="n">
-        <v>651.7809520892199</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>490.8701369575394</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>326.2390110681307</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>158.9886199936741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V13" t="n">
-        <v>811.2755967663099</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W13" t="n">
-        <v>811.2755967663099</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="X13" t="n">
-        <v>811.2755967663099</v>
+        <v>588.462840695405</v>
       </c>
       <c r="Y13" t="n">
-        <v>811.2755967663099</v>
+        <v>588.462840695405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1968.054351819207</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1557.929761132477</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1153.465831225537</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>991.9985319037307</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>570.9681198574183</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1827.878436701744</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2581.059453340362</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3224.690309757467</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3179.855602366654</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3179.855602366654</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2779.212204535606</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2378.275531483696</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>531.6943293326224</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="L15" t="n">
-        <v>1192.782501251911</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.782501251911</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.782501251911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.671376429294</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>146.0385542866016</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1094.073744220186</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>811.2755967663099</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V16" t="n">
-        <v>537.3898517058319</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W16" t="n">
-        <v>258.3201872147063</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X16" t="n">
-        <v>75.88807306732367</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.88807306732367</v>
+        <v>333.738260680646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5543,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>674.809389578345</v>
       </c>
       <c r="N18" t="n">
-        <v>1422.708046067539</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O18" t="n">
-        <v>1422.708046067539</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P18" t="n">
-        <v>1984.413938556069</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.3370701289063</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>199.7953788606302</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1436.250826191383</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V19" t="n">
-        <v>1194.186001765628</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W19" t="n">
-        <v>915.1163372745027</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X19" t="n">
-        <v>676.772475134186</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.0367765229507</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2144.727460069145</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C20" t="n">
-        <v>1734.602869382415</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5795,7 +5797,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>971.8633271658769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>800.7699547275934</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>641.2753100505033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>480.3644949188228</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>315.7333690294141</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>148.4829779549575</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.298732171156</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="Y22" t="n">
-        <v>1159.563033559921</v>
+        <v>180.6671168649296</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6032,7 +6034,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N24" t="n">
-        <v>3958.227793985246</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>497.6094628782566</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C25" t="n">
-        <v>326.5160904399731</v>
+        <v>104.582439399722</v>
       </c>
       <c r="D25" t="n">
-        <v>326.5160904399731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>326.5160904399731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>326.5160904399731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>326.5160904399731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>176.9086352454297</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6172,25 +6174,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1015.022989509699</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.022989509699</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>735.9533250185732</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X25" t="n">
-        <v>497.6094628782566</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y25" t="n">
-        <v>497.6094628782566</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1230.796550638079</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>809.7661385917668</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G26" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M27" t="n">
-        <v>3458.672769375206</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N27" t="n">
-        <v>4332.330861486824</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O27" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P27" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.5915297627801</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="C28" t="n">
-        <v>785.5915297627801</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D28" t="n">
-        <v>785.5915297627801</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6807146310996</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U28" t="n">
-        <v>1297.821136963575</v>
+        <v>1144.417083962495</v>
       </c>
       <c r="V28" t="n">
-        <v>1023.935391903097</v>
+        <v>870.5313389020167</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.935391903097</v>
+        <v>591.4616744108911</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5915297627801</v>
+        <v>591.4616744108911</v>
       </c>
       <c r="Y28" t="n">
-        <v>785.5915297627801</v>
+        <v>591.4616744108911</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3350.771460859042</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X29" t="n">
-        <v>2950.128063027995</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y29" t="n">
-        <v>2549.191389976085</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N30" t="n">
-        <v>754.331869609911</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="O30" t="n">
-        <v>1458.288960155805</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1953.732927139018</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3302.666962788279</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>3302.666962788279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3302.666962788279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3302.666962788279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4475.79311641105</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4236.244377387751</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>3953.446229933875</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>3953.446229933875</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W31" t="n">
-        <v>3953.446229933875</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X31" t="n">
-        <v>3715.102367793559</v>
+        <v>452.0367765229507</v>
       </c>
       <c r="Y31" t="n">
-        <v>3490.366669182323</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>862.403170019456</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4090.140845814479</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>674.809389578345</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.3930939062554</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C34" t="n">
-        <v>568.3930939062554</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D34" t="n">
-        <v>568.3930939062554</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E34" t="n">
-        <v>407.4822787745749</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V34" t="n">
-        <v>1065.958701797119</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W34" t="n">
-        <v>994.4366624406164</v>
+        <v>669.9313233436794</v>
       </c>
       <c r="X34" t="n">
-        <v>756.0928003002998</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="Y34" t="n">
-        <v>756.0928003002998</v>
+        <v>431.5874612033629</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6977,10 +6979,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.1057315295868</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C37" t="n">
-        <v>571.0123590913033</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D37" t="n">
-        <v>571.0123590913033</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1015439596227</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1553.961887432924</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1367.570119312835</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>1367.570119312835</v>
       </c>
       <c r="U37" t="n">
-        <v>1383.093855288175</v>
+        <v>1367.570119312835</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.093855288175</v>
+        <v>1093.684374252357</v>
       </c>
       <c r="W37" t="n">
-        <v>1383.093855288175</v>
+        <v>814.6147097612309</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.749993147859</v>
+        <v>814.6147097612309</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.0142945366232</v>
+        <v>589.8790111499956</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7208,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2950.128063027995</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N39" t="n">
-        <v>1597.308950304478</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>591.0821058804529</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C40" t="n">
-        <v>419.9887334421693</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1481.410112049347</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1241.861373026049</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.861373026049</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.861373026049</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W40" t="n">
-        <v>1241.861373026049</v>
+        <v>491.0822045080294</v>
       </c>
       <c r="X40" t="n">
-        <v>1003.517510885733</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.7818122744973</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.516988031346</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1216.555266593086</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>1216.555266593086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.555266593086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5248545467734</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>788.4794728795617</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1564.798063871316</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2317.979080509934</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3436.916094107144</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3087.078539443624</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2703.318238578793</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2302.674840747745</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1901.738167695835</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>268.7009306299569</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>724.5071868952557</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L42" t="n">
-        <v>724.5071868952557</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M42" t="n">
-        <v>898.8747121222223</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N42" t="n">
-        <v>1772.53280423384</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O42" t="n">
-        <v>1772.53280423384</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>1772.53280423384</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>397.9268714191968</v>
+        <v>4062.625193534336</v>
       </c>
       <c r="C43" t="n">
-        <v>236.7988881990042</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="D43" t="n">
-        <v>236.7988881990042</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E43" t="n">
-        <v>75.88807306732367</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F43" t="n">
-        <v>75.88807306732367</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G43" t="n">
-        <v>75.88807306732367</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1418.895201568084</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T43" t="n">
-        <v>1179.346462544786</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="U43" t="n">
-        <v>896.5483150909101</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="V43" t="n">
-        <v>622.6625700304321</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="W43" t="n">
-        <v>622.6625700304321</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="X43" t="n">
-        <v>622.6625700304321</v>
+        <v>4475.060598539616</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.9268714191968</v>
+        <v>4250.324899928381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1713.545093251264</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C44" t="n">
-        <v>1303.420502564534</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D44" t="n">
-        <v>898.9565726575947</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>484.6163571744915</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>484.6163571744915</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>868.125143816904</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.716543629142</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.035134620896</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3110.216151259514</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.855602366654</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V44" t="n">
-        <v>2925.346343798711</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W44" t="n">
-        <v>2925.346343798711</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X44" t="n">
-        <v>2524.702945967664</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2123.766272915754</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M45" t="n">
-        <v>918.8651537618904</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N45" t="n">
-        <v>1742.97328487121</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O45" t="n">
-        <v>1742.97328487121</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P45" t="n">
-        <v>1742.97328487121</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q45" t="n">
-        <v>2092.817749555194</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1165.22192336846</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="C46" t="n">
-        <v>994.1285509301767</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D46" t="n">
-        <v>834.6339062530867</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E46" t="n">
-        <v>673.7230911214062</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>509.0919652319975</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>1382.230958364461</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>1142.682219341163</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.488822234298</v>
+        <v>1142.682219341163</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.488822234298</v>
+        <v>1142.682219341163</v>
       </c>
       <c r="W46" t="n">
-        <v>1322.488822234298</v>
+        <v>1142.682219341163</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.488822234298</v>
+        <v>904.338357200846</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.488822234298</v>
+        <v>679.6026585896107</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>269.8552598673813</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -7997,10 +7999,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8067,10 +8069,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>232.5803491573234</v>
       </c>
       <c r="O3" t="n">
-        <v>205.3433246237786</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8222,22 +8224,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>564.4415429491208</v>
+        <v>266.9965351298658</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>535.1658287548266</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>109.0037515360769</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>502.6011371814503</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8696,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>342.8397105634987</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>65.70181352940445</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8778,10 +8780,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>342.8397105634987</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8945,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>289.8876284449575</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9245,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>645.0043765542985</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
@@ -9261,10 +9263,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.5804518230746</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>222.4181044444766</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -9726,13 +9728,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>245.6302329415199</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9954,28 +9956,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>570.0106120138655</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>389.2085932869795</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>244.5713724463587</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10434,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>645.0043765542985</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>461.5915225678817</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11072,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>684.6546467896635</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11139,13 +11141,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>233.6930970989897</v>
+        <v>349.8577735306707</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
@@ -11157,10 +11159,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.6228535942535</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11306,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11382,19 +11384,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>885.6258490597295</v>
+        <v>617.2881771218434</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>305.296069223817</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>65.84183918551103</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>32.18736260845964</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.3441869996837</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>117.1155306838816</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300467</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23902,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>42.62521628429056</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>31.50271142837607</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
     </row>
     <row r="21">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>99.27352434754022</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>93.42449318090658</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24175,19 +24177,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>146.6743439383108</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24379,10 +24381,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>32.35429725745824</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H26" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>65.73402110246975</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>75.47475231409192</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>32.28731256679799</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24847,13 +24849,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>142.9140301439031</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.410890947136</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>36.46078111520808</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>54.06597461814528</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>205.4721488832766</v>
+        <v>110.3427904112801</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.693231953137939</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>16.42609133159127</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>36.36515802722607</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.1276841407387</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>213.2523287433236</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>133.8112405559853</v>
+        <v>32.28731256679851</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>9.865735325909981</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>235.2352308261941</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>94.3750131346209</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.12847945292467</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>30.94032199270094</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26086,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>486666.3757936645</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>486666.3757936647</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166781</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>550332.4683166781</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>550332.4683166778</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486666.3757936645</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>486666.3757936647</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.6577038623</v>
       </c>
       <c r="C2" t="n">
         <v>521223.6577038623</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038621</v>
+        <v>521223.6577038624</v>
       </c>
       <c r="E2" t="n">
-        <v>409824.3164578232</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="F2" t="n">
-        <v>409824.3164578232</v>
+        <v>463437.86805615</v>
       </c>
       <c r="G2" t="n">
-        <v>463437.8680561502</v>
+        <v>463437.86805615</v>
       </c>
       <c r="H2" t="n">
         <v>463437.8680561499</v>
       </c>
       <c r="I2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="J2" t="n">
-        <v>463437.8680561502</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="K2" t="n">
         <v>463437.8680561502</v>
       </c>
       <c r="L2" t="n">
-        <v>463437.8680561499</v>
+        <v>463437.86805615</v>
       </c>
       <c r="M2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="N2" t="n">
+        <v>463437.8680561501</v>
+      </c>
+      <c r="O2" t="n">
         <v>463437.8680561502</v>
       </c>
-      <c r="O2" t="n">
-        <v>409824.3164578231</v>
-      </c>
       <c r="P2" t="n">
-        <v>409824.3164578232</v>
+        <v>463437.8680561503</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>155118.3712081971</v>
+        <v>57848.94447198565</v>
       </c>
       <c r="E4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="P4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125780.7115240534</v>
+        <v>125780.7115240536</v>
       </c>
       <c r="C6" t="n">
-        <v>300736.2214171676</v>
+        <v>300736.2214171677</v>
       </c>
       <c r="D6" t="n">
-        <v>300736.2214171675</v>
+        <v>192546.172966608</v>
       </c>
       <c r="E6" t="n">
-        <v>224159.1526890055</v>
+        <v>364865.575700198</v>
       </c>
       <c r="F6" t="n">
-        <v>351513.819478756</v>
+        <v>391834.5298811321</v>
       </c>
       <c r="G6" t="n">
-        <v>332373.0751951705</v>
+        <v>391834.5298811321</v>
       </c>
       <c r="H6" t="n">
         <v>391834.529881132</v>
       </c>
       <c r="I6" t="n">
-        <v>391834.529881132</v>
+        <v>391834.5298811321</v>
       </c>
       <c r="J6" t="n">
         <v>255239.7290752372</v>
@@ -26549,19 +26551,19 @@
         <v>391834.5298811322</v>
       </c>
       <c r="L6" t="n">
-        <v>391834.529881132</v>
+        <v>251835.2190163793</v>
       </c>
       <c r="M6" t="n">
-        <v>285539.7178632573</v>
+        <v>369325.2651070847</v>
       </c>
       <c r="N6" t="n">
+        <v>391834.5298811321</v>
+      </c>
+      <c r="O6" t="n">
         <v>391834.5298811322</v>
       </c>
-      <c r="O6" t="n">
-        <v>351513.819478756</v>
-      </c>
       <c r="P6" t="n">
-        <v>351513.819478756</v>
+        <v>391834.5298811323</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>149.7869756677925</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>231.7439112705374</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>105.7251922248154</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>110.8572724611566</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8321857365367</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>104.4196499486594</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.36361241111581</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27822,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>156.7553487017546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>72.59222577567755</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>318.541732409428</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28023,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.34221838919865</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>78.21137388222442</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34717,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="O3" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34942,22 +34944,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>506.6900639491208</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>441.8756042977812</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>57.63451273607693</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>445.0368534430329</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35416,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>249.5494861064533</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>14.33257472940443</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>249.5494861064533</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35665,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>234.0618456603421</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>587.440092815881</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
@@ -35981,10 +35983,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.8878333182359</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>164.6666254444766</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,13 +36366,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N23" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>187.87875394152</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>512.4463282754481</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>334.9489582841758</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>187.87875394152</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>587.440092815881</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37792,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>591.4648711638804</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37859,13 +37861,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>176.1288133605723</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.4864639210364</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38026,16 +38028,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>832.4324556659795</v>
+        <v>564.0947837280935</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2636921.784457044</v>
+        <v>2635609.139001464</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>256.23636911207</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>22.97139797302649</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,16 +718,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>83.76217398785592</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>86.19391659896213</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>115.5647692639504</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>27.77250173713422</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097031</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>17.18077488314867</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1186,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>27.79744670745611</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1296,19 +1296,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>127.2154435760952</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>157.749049636689</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1381,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>108.2642464846189</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1542,10 +1542,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>49.53897396031727</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>203.7730609104538</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>52.26690803001904</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>63.65724648908541</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>85.2997057160983</v>
+        <v>245.2379843596723</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2004,10 +2004,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>105.4861643583073</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>142.9746750246303</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>216.6467621941105</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.2425928248792</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.54918498256373</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>185.2868345144182</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>182.1412945836353</v>
       </c>
       <c r="H23" t="n">
-        <v>262.2425928248799</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>11.22535429200825</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>32.91906944721479</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2608,7 +2608,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>157.4229911737226</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>7.281820507171027</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>204.4954136652452</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2845,16 +2845,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>347.6353852893851</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2952,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>96.54953257177749</v>
+        <v>164.2800905982005</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>368.180220150888</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3249,10 +3249,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>165.9361774349343</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>153.4368490993556</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>303.5173507639744</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>358.7938392237629</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3438,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>129.9555967672233</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.99389980976308</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3562,13 +3562,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>63.02663910289075</v>
+        <v>249.2384844440615</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>373.736032213064</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>177.3516742227375</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.18128003009048</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0.7251926927192925</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>88.37144488016051</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.5875284461879</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>44.21277235333793</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>414.362427326103</v>
       </c>
       <c r="C2" t="n">
-        <v>74.16631101150881</v>
+        <v>408.2782406797772</v>
       </c>
       <c r="D2" t="n">
-        <v>73.74278514497341</v>
+        <v>407.8547148132418</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>397.5549033705425</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>380.5648953646341</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>375.8770152978704</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>64.9685179255884</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O2" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>824.5836069905924</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>126.3733421829919</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>1318.798642324783</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X4" t="n">
-        <v>1318.798642324783</v>
+        <v>538.8087471882716</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>314.0730485770363</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>974.6830684215697</v>
+        <v>1374.748391933457</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>964.6238012467271</v>
       </c>
       <c r="D5" t="n">
-        <v>968.1753559087084</v>
+        <v>560.1598713397876</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>549.8600598970884</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>128.8296478507759</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1971.522191314496</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.461699574006</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1364.624144910487</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>980.8638440456551</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X5" t="n">
-        <v>980.8638440456551</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y5" t="n">
-        <v>980.8638440456551</v>
+        <v>1380.929167557543</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1543.110950192741</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1303.562211169443</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1020.764063715567</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>746.8783186550887</v>
+        <v>1463.112849513378</v>
       </c>
       <c r="W7" t="n">
-        <v>467.8086541639631</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>908.9962776356539</v>
       </c>
       <c r="F8" t="n">
         <v>892.0062696297455</v>
@@ -4834,22 +4834,22 @@
         <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4165.605198162539</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4165.605198162539</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0758930760849</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8821493413836</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>1259.970321260672</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="M9" t="n">
-        <v>2102.947401955239</v>
+        <v>2045.889234346522</v>
       </c>
       <c r="N9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7185531001956</v>
+        <v>873.2673968455412</v>
       </c>
       <c r="C10" t="n">
-        <v>235.6251806619121</v>
+        <v>702.1740244072577</v>
       </c>
       <c r="D10" t="n">
-        <v>235.6251806619121</v>
+        <v>542.6793797301677</v>
       </c>
       <c r="E10" t="n">
-        <v>235.6251806619121</v>
+        <v>381.7685645984872</v>
       </c>
       <c r="F10" t="n">
-        <v>235.6251806619121</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>235.6251806619121</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1069.866390583051</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>790.7967260919249</v>
+        <v>1336.346957597093</v>
       </c>
       <c r="X10" t="n">
-        <v>631.454251711431</v>
+        <v>1098.003095456776</v>
       </c>
       <c r="Y10" t="n">
-        <v>406.7185531001956</v>
+        <v>873.2673968455412</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2128.160977929772</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1718.036387243042</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.572457336103</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
         <v>899.2322418529996</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4552.827059799201</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4073.56008400557</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V11" t="n">
-        <v>3723.722529342051</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>3339.962228477219</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>2939.318830646172</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2538.382157594262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>107.4329466727332</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>563.2392029380319</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>563.2392029380319</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.216283632599</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.216283632599</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>588.462840695405</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="C13" t="n">
-        <v>417.3694682571215</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1572.603226674789</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1386.211458554699</v>
       </c>
       <c r="T13" t="n">
-        <v>1350.978107866783</v>
+        <v>1146.662719531401</v>
       </c>
       <c r="U13" t="n">
-        <v>1068.179960412907</v>
+        <v>1146.662719531401</v>
       </c>
       <c r="V13" t="n">
-        <v>794.2942153524291</v>
+        <v>1146.662719531401</v>
       </c>
       <c r="W13" t="n">
-        <v>794.2942153524291</v>
+        <v>1146.662719531401</v>
       </c>
       <c r="X13" t="n">
-        <v>588.462840695405</v>
+        <v>1146.662719531401</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.462840695405</v>
+        <v>921.9270209201659</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9649248943615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>324.9649248943615</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>324.9649248943615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.0385542866016</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>1111.429368843485</v>
+        <v>1473.069627007998</v>
       </c>
       <c r="V16" t="n">
-        <v>837.543623783007</v>
+        <v>1199.18388194752</v>
       </c>
       <c r="W16" t="n">
-        <v>558.4739592918813</v>
+        <v>1199.18388194752</v>
       </c>
       <c r="X16" t="n">
-        <v>558.4739592918813</v>
+        <v>1199.18388194752</v>
       </c>
       <c r="Y16" t="n">
-        <v>333.738260680646</v>
+        <v>1199.18388194752</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2324.444211508952</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
-        <v>1914.319620822223</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D17" t="n">
-        <v>1509.855690915283</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E17" t="n">
-        <v>1095.51547543218</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F17" t="n">
-        <v>674.4850633858673</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G17" t="n">
-        <v>265.7567792786995</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.245462056399</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>3135.602064225352</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.665391173442</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>674.809389578345</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367.0457699350868</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C19" t="n">
-        <v>367.0457699350868</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D19" t="n">
-        <v>367.0457699350868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>367.0457699350868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>367.0457699350868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7953788606302</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V19" t="n">
-        <v>554.7454763291312</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W19" t="n">
-        <v>554.7454763291312</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="X19" t="n">
-        <v>554.7454763291312</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.7454763291312</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2238.282892603803</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.158301917073</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1423.694372010133</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2648.504072268292</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
         <v>1760.328909494509</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>734.3499851322201</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>563.2566126939366</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.702087168085</v>
+        <v>1195.935436586743</v>
       </c>
       <c r="V22" t="n">
-        <v>922.8163421076072</v>
+        <v>922.0496915262645</v>
       </c>
       <c r="W22" t="n">
-        <v>643.7466776164815</v>
+        <v>922.0496915262645</v>
       </c>
       <c r="X22" t="n">
-        <v>405.4028154761649</v>
+        <v>922.0496915262645</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.6671168649296</v>
+        <v>922.0496915262645</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2503.174400507722</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>2093.049809820992</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1688.585879914052</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>1274.245664430949</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>853.2152523846366</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
-        <v>444.4869682774688</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2913.395580172211</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.6758118380055</v>
+        <v>551.943428758147</v>
       </c>
       <c r="C25" t="n">
-        <v>104.582439399722</v>
+        <v>551.943428758147</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>392.448784081057</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>392.448784081057</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>392.448784081057</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W25" t="n">
-        <v>275.6758118380055</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="X25" t="n">
-        <v>275.6758118380055</v>
+        <v>776.6791273693823</v>
       </c>
       <c r="Y25" t="n">
-        <v>275.6758118380055</v>
+        <v>551.943428758147</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4367.890686927541</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.371818948615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.371818948615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>403.7619680168467</v>
+        <v>873.0750759724272</v>
       </c>
       <c r="C28" t="n">
-        <v>403.7619680168467</v>
+        <v>701.9817035341437</v>
       </c>
       <c r="D28" t="n">
-        <v>403.7619680168467</v>
+        <v>542.4870588570536</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>381.5762437253731</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>216.9451178359644</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>216.9451178359644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1144.417083962495</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V28" t="n">
-        <v>870.5313389020167</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W28" t="n">
-        <v>591.4616744108911</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X28" t="n">
-        <v>591.4616744108911</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="Y28" t="n">
-        <v>591.4616744108911</v>
+        <v>1060.774782366472</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3346.652425040428</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2946.009027209381</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N30" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>1953.732927139018</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W31" t="n">
-        <v>549.5615568984836</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X31" t="n">
-        <v>452.0367765229507</v>
+        <v>655.2865578904458</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.0367765229507</v>
+        <v>430.5508592792105</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C32" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1697.773797548872</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.433582065768</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>862.403170019456</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>674.809389578345</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>431.5874612033629</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C34" t="n">
-        <v>260.4940887650794</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D34" t="n">
-        <v>260.4940887650794</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E34" t="n">
-        <v>260.4940887650794</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U34" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V34" t="n">
-        <v>837.543623783007</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W34" t="n">
-        <v>669.9313233436794</v>
+        <v>744.865727411971</v>
       </c>
       <c r="X34" t="n">
-        <v>431.5874612033629</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="Y34" t="n">
-        <v>431.5874612033629</v>
+        <v>589.8790111499956</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2502.881125286859</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C35" t="n">
-        <v>2092.756534600129</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1688.29260469319</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1273.952389210086</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>852.921977163774</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>3314.038978003258</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y35" t="n">
-        <v>2913.102304951348</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>589.8790111499956</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="C37" t="n">
-        <v>418.7856387117121</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="D37" t="n">
-        <v>418.7856387117121</v>
+        <v>816.0074193647811</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>655.0966042331006</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>490.4654783436919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1553.961887432924</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1367.570119312835</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1367.570119312835</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>1367.570119312835</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V37" t="n">
-        <v>1093.684374252357</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W37" t="n">
-        <v>814.6147097612309</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="X37" t="n">
-        <v>814.6147097612309</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.8790111499956</v>
+        <v>975.5020640418711</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7210,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>874.0699105066985</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>252.7383423677128</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="C40" t="n">
-        <v>252.7383423677128</v>
+        <v>533.7155141527953</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W40" t="n">
-        <v>491.0822045080294</v>
+        <v>1184.494781298392</v>
       </c>
       <c r="X40" t="n">
-        <v>252.7383423677128</v>
+        <v>946.150919158075</v>
       </c>
       <c r="Y40" t="n">
-        <v>252.7383423677128</v>
+        <v>721.4152205468397</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.726583806251</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>1236.515282066875</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4062.625193534336</v>
+        <v>578.280283388802</v>
       </c>
       <c r="C43" t="n">
-        <v>3891.531821096053</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>1095.693810020244</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>816.6241455291186</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.060598539616</v>
+        <v>578.280283388802</v>
       </c>
       <c r="Y43" t="n">
-        <v>4250.324899928381</v>
+        <v>578.280283388802</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
         <v>1734.602869382415</v>
@@ -7693,7 +7693,7 @@
         <v>3048.67665537811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>286.056555253256</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>844.5103911440685</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>679.6026585896107</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.230958364461</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1142.682219341163</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1142.682219341163</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1142.682219341163</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1142.682219341163</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>904.338357200846</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>679.6026585896107</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>593.8823835359372</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
@@ -8066,19 +8066,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>232.5803491573234</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,7 +8224,7 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,13 +8233,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>235.5014795744224</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298658</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>109.0037515360769</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8543,7 +8543,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>65.70181352940445</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8876284449575</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>645.0043765542985</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9485,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O21" t="n">
-        <v>222.4181044444766</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>245.6302329415199</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>570.0106120138655</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10208,10 +10208,10 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>244.5713724463587</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>645.0043765542985</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11141,16 +11141,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>349.8577735306707</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>617.2881771218434</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>34.88101718103707</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>32.18736260845964</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>117.1155306838816</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>216.3129194902517</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>222.4997066824609</v>
+        <v>62.56142803888687</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>42.62521628429056</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>92.98574849428311</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.27352434754022</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24144,7 +24144,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>94.68333146491889</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>222.4997066824608</v>
       </c>
       <c r="H23" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>146.6743439383108</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>132.6588177164972</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.8295601354269</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>75.47475231409192</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>32.28731256679799</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24855,7 +24855,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>139.410890947136</v>
+        <v>71.68033292071291</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>36.46078111520808</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.3427904112801</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.5235744195578</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>45.8471620423332</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>35.62229039648869</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.42609133159127</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>96.14494677818681</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25560,7 +25560,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>213.2523287433236</v>
+        <v>27.04048340215286</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>32.28731256679851</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>213.9656075797828</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.2352308261941</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>308.5558614412303</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>30.94032199270094</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>178.275569271785</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550332.4683166778</v>
+        <v>550332.4683166782</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>550332.4683166778</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166781</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>550332.4683166778</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166778</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550332.4683166778</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>550332.4683166778</v>
+        <v>550332.4683166781</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038623</v>
+        <v>521223.6577038621</v>
       </c>
       <c r="C2" t="n">
-        <v>521223.6577038623</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038624</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="E2" t="n">
-        <v>463437.8680561502</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="F2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="G2" t="n">
         <v>463437.86805615</v>
       </c>
       <c r="H2" t="n">
-        <v>463437.8680561499</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="I2" t="n">
-        <v>463437.8680561501</v>
+        <v>463437.86805615</v>
       </c>
       <c r="J2" t="n">
-        <v>463437.8680561501</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="K2" t="n">
         <v>463437.8680561502</v>
@@ -26346,16 +26346,16 @@
         <v>463437.86805615</v>
       </c>
       <c r="M2" t="n">
+        <v>463437.86805615</v>
+      </c>
+      <c r="N2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="O2" t="n">
         <v>463437.8680561501</v>
       </c>
-      <c r="N2" t="n">
-        <v>463437.8680561501</v>
-      </c>
-      <c r="O2" t="n">
-        <v>463437.8680561502</v>
-      </c>
       <c r="P2" t="n">
-        <v>463437.8680561503</v>
+        <v>463437.86805615</v>
       </c>
     </row>
     <row r="3">
@@ -26423,16 +26423,16 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198565</v>
+        <v>57848.94447198568</v>
       </c>
       <c r="E4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446465</v>
@@ -26441,13 +26441,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
@@ -26456,7 +26456,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
         <v>738.1279301446466</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125780.7115240536</v>
+        <v>125780.7115240534</v>
       </c>
       <c r="C6" t="n">
-        <v>300736.2214171677</v>
+        <v>300736.2214171675</v>
       </c>
       <c r="D6" t="n">
-        <v>192546.172966608</v>
+        <v>192546.1729666078</v>
       </c>
       <c r="E6" t="n">
-        <v>364865.575700198</v>
+        <v>364684.9951075488</v>
       </c>
       <c r="F6" t="n">
-        <v>391834.5298811321</v>
+        <v>391653.949288483</v>
       </c>
       <c r="G6" t="n">
-        <v>391834.5298811321</v>
+        <v>391653.949288483</v>
       </c>
       <c r="H6" t="n">
-        <v>391834.529881132</v>
+        <v>391653.949288483</v>
       </c>
       <c r="I6" t="n">
-        <v>391834.5298811321</v>
+        <v>391653.9492884829</v>
       </c>
       <c r="J6" t="n">
-        <v>255239.7290752372</v>
+        <v>255059.1484825881</v>
       </c>
       <c r="K6" t="n">
-        <v>391834.5298811322</v>
+        <v>391653.9492884831</v>
       </c>
       <c r="L6" t="n">
-        <v>251835.2190163793</v>
+        <v>251654.6384237302</v>
       </c>
       <c r="M6" t="n">
-        <v>369325.2651070847</v>
+        <v>369144.6845144355</v>
       </c>
       <c r="N6" t="n">
-        <v>391834.5298811321</v>
+        <v>391653.9492884831</v>
       </c>
       <c r="O6" t="n">
-        <v>391834.5298811322</v>
+        <v>391653.949288483</v>
       </c>
       <c r="P6" t="n">
-        <v>391834.5298811323</v>
+        <v>391653.949288483</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149.7869756677925</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>62.51684708307108</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>85.62026472604474</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>110.8572724611566</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>318.447084667134</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>104.4196499486594</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27824,16 +27824,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>156.7553487017546</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>164.1762662001701</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>393.0160384451236</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>318.541732409428</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>35.76937105441941</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28070,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>78.21137388222442</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
@@ -34786,19 +34786,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>179.3869557635734</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,7 +34944,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>460.0037840019794</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>179.3869557635733</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>209.2450561298658</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.63451273607693</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35263,7 +35263,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.33257472940443</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>234.0618456603421</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>587.440092815881</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36141,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O21" t="n">
-        <v>164.6666254444766</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36372,7 +36372,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.87875394152</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>512.4463282754481</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>187.87875394152</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>587.440092815881</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570326</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>292.2934897922533</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38098,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>564.0947837280935</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
